--- a/H2VGI/Data/5Days-Block.xlsx
+++ b/H2VGI/Data/5Days-Block.xlsx
@@ -4,11 +4,13 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Load" sheetId="1" r:id="rId1"/>
     <sheet name="Cost" sheetId="2" r:id="rId2"/>
+    <sheet name="Load_true" sheetId="3" r:id="rId3"/>
+    <sheet name="Cost_true" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="1">
   <si>
     <t>Value</t>
   </si>
@@ -348,8 +350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -370,7 +372,7 @@
         <v>11922.930466708</v>
       </c>
       <c r="B2" s="2">
-        <v>14622.304898308001</v>
+        <v>14816.701805929601</v>
       </c>
       <c r="C2" s="2">
         <v>14322.930466708</v>
@@ -381,7 +383,7 @@
         <v>10554.0226295254</v>
       </c>
       <c r="B3" s="2">
-        <v>12384.4695704854</v>
+        <v>13170.9375967254</v>
       </c>
       <c r="C3" s="2">
         <v>12954.0226295254</v>
@@ -392,7 +394,7 @@
         <v>9831.2695689291904</v>
       </c>
       <c r="B4" s="2">
-        <v>12337.8359086492</v>
+        <v>13047.751876186299</v>
       </c>
       <c r="C4" s="2">
         <v>12231.2695689292</v>
@@ -403,7 +405,7 @@
         <v>9770.8936123330095</v>
       </c>
       <c r="B5" s="2">
-        <v>12262.222870333</v>
+        <v>13554.965422333</v>
       </c>
       <c r="C5" s="2">
         <v>12170.893612333</v>
@@ -414,7 +416,7 @@
         <v>9967.9980417079896</v>
       </c>
       <c r="B6" s="2">
-        <v>12467.166289987999</v>
+        <v>13148.1582781652</v>
       </c>
       <c r="C6" s="2">
         <v>12367.998041708001</v>
@@ -422,10 +424,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
-        <v>9991.5095056579994</v>
+        <v>10311.509505657999</v>
       </c>
       <c r="B7" s="2">
-        <v>12467.212558978001</v>
+        <v>13164.560032629401</v>
       </c>
       <c r="C7" s="2">
         <v>11981.0145905151</v>
@@ -436,7 +438,7 @@
         <v>11270.265303658</v>
       </c>
       <c r="B8" s="2">
-        <v>13543.202601417999</v>
+        <v>14133.008246858</v>
       </c>
       <c r="C8" s="2">
         <v>12870.265303658</v>
@@ -447,7 +449,7 @@
         <v>12325.928813158</v>
       </c>
       <c r="B9" s="2">
-        <v>14187.930336957999</v>
+        <v>15001.222842872299</v>
       </c>
       <c r="C9" s="2">
         <v>13925.928813158</v>
@@ -458,7 +460,7 @@
         <v>13269.471198282999</v>
       </c>
       <c r="B10" s="2">
-        <v>15662.566346923</v>
+        <v>15634.3237207973</v>
       </c>
       <c r="C10" s="2">
         <v>14804.6343948544</v>
@@ -469,7 +471,7 @@
         <v>13851.351084783</v>
       </c>
       <c r="B11" s="2">
-        <v>16332.971241423</v>
+        <v>17014.798853011602</v>
       </c>
       <c r="C11" s="2">
         <v>15451.351084783</v>
@@ -477,10 +479,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
-        <v>13578.810505533</v>
+        <v>13601.61141772</v>
       </c>
       <c r="B12" s="2">
-        <v>15795.214595613001</v>
+        <v>16493.9078453164</v>
       </c>
       <c r="C12" s="2">
         <v>15178.810505533</v>
@@ -488,10 +490,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
-        <v>13092.563432630701</v>
+        <v>13069.762520443801</v>
       </c>
       <c r="B13" s="2">
-        <v>15506.0069336132</v>
+        <v>15941.231773133501</v>
       </c>
       <c r="C13" s="2">
         <v>14633.161056143599</v>
@@ -502,7 +504,7 @@
         <v>11870.544554157999</v>
       </c>
       <c r="B14" s="2">
-        <v>14397.571759158</v>
+        <v>15092.475225586601</v>
       </c>
       <c r="C14" s="2">
         <v>14270.544554157999</v>
@@ -513,7 +515,7 @@
         <v>11101.978688650401</v>
       </c>
       <c r="B15" s="2">
-        <v>12803.1564394652</v>
+        <v>13577.1483917361</v>
       </c>
       <c r="C15" s="2">
         <v>13501.978688650401</v>
@@ -524,7 +526,7 @@
         <v>10225.705934679199</v>
       </c>
       <c r="B16" s="2">
-        <v>12529.6122507992</v>
+        <v>13219.902426222099</v>
       </c>
       <c r="C16" s="2">
         <v>12625.705934679199</v>
@@ -535,7 +537,7 @@
         <v>9960.6370535830101</v>
       </c>
       <c r="B17" s="2">
-        <v>12190.096532502999</v>
+        <v>13598.217509697301</v>
       </c>
       <c r="C17" s="2">
         <v>12360.637053582999</v>
@@ -546,7 +548,7 @@
         <v>10187.6523318936</v>
       </c>
       <c r="B18" s="2">
-        <v>12122.689115158801</v>
+        <v>12775.5440898364</v>
       </c>
       <c r="C18" s="2">
         <v>12587.6523318936</v>
@@ -554,10 +556,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
-        <v>10314.073355783001</v>
+        <v>10449.048428847</v>
       </c>
       <c r="B19" s="2">
-        <v>13301.904036903001</v>
+        <v>13350.102575897299</v>
       </c>
       <c r="C19" s="2">
         <v>12714.073355783001</v>
@@ -568,7 +570,7 @@
         <v>11603.753776158001</v>
       </c>
       <c r="B20" s="2">
-        <v>13174.799053758001</v>
+        <v>13899.9873738723</v>
       </c>
       <c r="C20" s="2">
         <v>13372.484130872301</v>
@@ -579,7 +581,7 @@
         <v>12564.545565033</v>
       </c>
       <c r="B21" s="2">
-        <v>14477.293265913</v>
+        <v>15186.210042061601</v>
       </c>
       <c r="C21" s="2">
         <v>14164.545565033</v>
@@ -590,7 +592,7 @@
         <v>13451.164917783</v>
       </c>
       <c r="B22" s="2">
-        <v>15489.305067543</v>
+        <v>16192.250774697301</v>
       </c>
       <c r="C22" s="2">
         <v>15051.164917783</v>
@@ -601,7 +603,7 @@
         <v>14027.295003032999</v>
       </c>
       <c r="B23" s="2">
-        <v>16229.243195192999</v>
+        <v>16210.1028050902</v>
       </c>
       <c r="C23" s="2">
         <v>15627.295003032999</v>
@@ -612,7 +614,7 @@
         <v>13775.453708282999</v>
       </c>
       <c r="B24" s="2">
-        <v>16369.015776003</v>
+        <v>17045.5128203973</v>
       </c>
       <c r="C24" s="2">
         <v>15383.8540443519</v>
@@ -620,10 +622,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
-        <v>13142.1829140875</v>
+        <v>13133.782578018599</v>
       </c>
       <c r="B25" s="2">
-        <v>15134.3019624186</v>
+        <v>16025.140598890201</v>
       </c>
       <c r="C25" s="2">
         <v>14830.784618436801</v>
@@ -634,7 +636,7 @@
         <v>11849.845269658001</v>
       </c>
       <c r="B26" s="2">
-        <v>14386.0797512476</v>
+        <v>15031.2825503437</v>
       </c>
       <c r="C26" s="2">
         <v>14250.963110496999</v>
@@ -645,7 +647,7 @@
         <v>11083.0043445254</v>
       </c>
       <c r="B27" s="2">
-        <v>13900.231363405401</v>
+        <v>14566.0776958397</v>
       </c>
       <c r="C27" s="2">
         <v>13483.0043445254</v>
@@ -653,10 +655,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
-        <v>10173.6082527204</v>
+        <v>10165.2363686804</v>
       </c>
       <c r="B28" s="2">
-        <v>12093.786438519201</v>
+        <v>13159.2313051978</v>
       </c>
       <c r="C28" s="2">
         <v>12573.8622592513</v>
@@ -664,10 +666,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
-        <v>10054.7082846668</v>
+        <v>10063.0801687068</v>
       </c>
       <c r="B29" s="2">
-        <v>11724.361780428</v>
+        <v>12802.2582622465</v>
       </c>
       <c r="C29" s="2">
         <v>12454.4542781358</v>
@@ -678,7 +680,7 @@
         <v>10249.175205268601</v>
       </c>
       <c r="B30" s="2">
-        <v>12233.9444636686</v>
+        <v>12939.4197594044</v>
       </c>
       <c r="C30" s="2">
         <v>12649.163322832999</v>
@@ -686,10 +688,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
-        <v>10280.724508533</v>
+        <v>10557.753055561599</v>
       </c>
       <c r="B31" s="2">
-        <v>12602.386159612999</v>
+        <v>12987.068938132999</v>
       </c>
       <c r="C31" s="2">
         <v>12680.724508533</v>
@@ -700,7 +702,7 @@
         <v>11591.679193533</v>
       </c>
       <c r="B32" s="2">
-        <v>14008.071686732999</v>
+        <v>14534.119467533001</v>
       </c>
       <c r="C32" s="2">
         <v>13191.679193533</v>
@@ -711,7 +713,7 @@
         <v>12503.022691658</v>
       </c>
       <c r="B33" s="2">
-        <v>14806.302720098</v>
+        <v>15382.622707458</v>
       </c>
       <c r="C33" s="2">
         <v>14103.022691658</v>
@@ -722,7 +724,7 @@
         <v>13376.417501533</v>
       </c>
       <c r="B34" s="2">
-        <v>15265.880328973</v>
+        <v>15923.6105132584</v>
       </c>
       <c r="C34" s="2">
         <v>14976.417501533</v>
@@ -733,7 +735,7 @@
         <v>14037.069665158</v>
       </c>
       <c r="B35" s="2">
-        <v>16404.945421678</v>
+        <v>16952.556196557998</v>
       </c>
       <c r="C35" s="2">
         <v>15637.069665158</v>
@@ -744,7 +746,7 @@
         <v>13788.103271033</v>
       </c>
       <c r="B36" s="2">
-        <v>15943.403295353</v>
+        <v>16391.298799936201</v>
       </c>
       <c r="C36" s="2">
         <v>15388.103271033</v>
@@ -752,10 +754,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
-        <v>13069.953094908</v>
+        <v>13132.0555794173</v>
       </c>
       <c r="B37" s="2">
-        <v>15338.269440599899</v>
+        <v>15984.713223136599</v>
       </c>
       <c r="C37" s="2">
         <v>15123.4909329734</v>
@@ -763,10 +765,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
-        <v>12887.944083258</v>
+        <v>12975.144095457999</v>
       </c>
       <c r="B38" s="2">
-        <v>14615.974140119801</v>
+        <v>15294.143388459601</v>
       </c>
       <c r="C38" s="2">
         <v>14924.344077158001</v>
@@ -774,10 +776,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
-        <v>11160.9462128012</v>
+        <v>11180.7509657754</v>
       </c>
       <c r="B39" s="2">
-        <v>13227.893277695401</v>
+        <v>13799.867877951499</v>
       </c>
       <c r="C39" s="2">
         <v>13424.697182842299</v>
@@ -785,10 +787,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
-        <v>10264.227076601501</v>
+        <v>10273.429285054201</v>
       </c>
       <c r="B40" s="2">
-        <v>12835.2631296942</v>
+        <v>13690.2549752828</v>
       </c>
       <c r="C40" s="2">
         <v>12673.429285054201</v>
@@ -799,7 +801,7 @@
         <v>10072.758177958</v>
       </c>
       <c r="B41" s="2">
-        <v>12750.757690197999</v>
+        <v>13960.535684758001</v>
       </c>
       <c r="C41" s="2">
         <v>12472.758177958</v>
@@ -807,10 +809,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
-        <v>10125.3693719359</v>
+        <v>10175.002769143601</v>
       </c>
       <c r="B42" s="2">
-        <v>12517.4662131436</v>
+        <v>13336.4627673675</v>
       </c>
       <c r="C42" s="2">
         <v>12731.0565520767</v>
@@ -821,7 +823,7 @@
         <v>10296.248971908</v>
       </c>
       <c r="B43" s="2">
-        <v>12719.983562148</v>
+        <v>13404.5676292794</v>
       </c>
       <c r="C43" s="2">
         <v>12553.649279028001</v>
@@ -832,7 +834,7 @@
         <v>11989.203027007999</v>
       </c>
       <c r="B44" s="2">
-        <v>13782.6871591565</v>
+        <v>14427.4752446725</v>
       </c>
       <c r="C44" s="2">
         <v>13811.420775930899</v>
@@ -843,7 +845,7 @@
         <v>12616.868756407999</v>
       </c>
       <c r="B45" s="2">
-        <v>14716.867367048</v>
+        <v>15265.802122302201</v>
       </c>
       <c r="C45" s="2">
         <v>14216.868756407999</v>
@@ -854,7 +856,7 @@
         <v>13530.512175033</v>
       </c>
       <c r="B46" s="2">
-        <v>15587.759358993</v>
+        <v>15970.170804945799</v>
       </c>
       <c r="C46" s="2">
         <v>15130.512175033</v>
@@ -865,7 +867,7 @@
         <v>14173.339954782999</v>
       </c>
       <c r="B47" s="2">
-        <v>16206.856912903</v>
+        <v>16903.071598183</v>
       </c>
       <c r="C47" s="2">
         <v>15773.339954782999</v>
@@ -876,7 +878,7 @@
         <v>13858.250846282999</v>
       </c>
       <c r="B48" s="2">
-        <v>16361.411591403001</v>
+        <v>16848.895704683</v>
       </c>
       <c r="C48" s="2">
         <v>15458.250846282999</v>
@@ -884,10 +886,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
-        <v>13580.7269778463</v>
+        <v>13599.525849615</v>
       </c>
       <c r="B49" s="2">
-        <v>15288.906495143399</v>
+        <v>15867.019603472199</v>
       </c>
       <c r="C49" s="2">
         <v>14860.6559219438</v>
@@ -895,10 +897,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
-        <v>12565.167666032999</v>
+        <v>12245.167666032999</v>
       </c>
       <c r="B50" s="2">
-        <v>14490.185570553</v>
+        <v>14558.518051290101</v>
       </c>
       <c r="C50" s="2">
         <v>14965.167666032999</v>
@@ -906,10 +908,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
-        <v>11141.971868676101</v>
+        <v>11161.776621650401</v>
       </c>
       <c r="B51" s="2">
-        <v>13813.9383568104</v>
+        <v>15154.792630379199</v>
       </c>
       <c r="C51" s="2">
         <v>13567.3003335746</v>
@@ -917,10 +919,10 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
-        <v>10169.930336101501</v>
+        <v>10179.132544554201</v>
       </c>
       <c r="B52" s="2">
-        <v>12263.1138713942</v>
+        <v>12993.5649800509</v>
       </c>
       <c r="C52" s="2">
         <v>12544.6018712031</v>
@@ -931,7 +933,7 @@
         <v>10059.533635083</v>
       </c>
       <c r="B53" s="2">
-        <v>12660.304465203</v>
+        <v>13353.907945257501</v>
       </c>
       <c r="C53" s="2">
         <v>12459.533635083</v>
@@ -939,10 +941,10 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
-        <v>10153.5433980609</v>
+        <v>10173.059604563899</v>
       </c>
       <c r="B54" s="2">
-        <v>12721.512399708599</v>
+        <v>12986.183218038899</v>
       </c>
       <c r="C54" s="2">
         <v>12530.579159160599</v>
@@ -953,7 +955,7 @@
         <v>10195.052469908</v>
       </c>
       <c r="B55" s="2">
-        <v>12002.5348071516</v>
+        <v>12733.932088559201</v>
       </c>
       <c r="C55" s="2">
         <v>12595.052469908</v>
@@ -964,7 +966,7 @@
         <v>11366.861964657999</v>
       </c>
       <c r="B56" s="2">
-        <v>13731.072933418</v>
+        <v>14418.4914587151</v>
       </c>
       <c r="C56" s="2">
         <v>13133.9924344758</v>
@@ -975,7 +977,7 @@
         <v>12195.983304908001</v>
       </c>
       <c r="B57" s="2">
-        <v>14676.162979508001</v>
+        <v>15358.0591854794</v>
       </c>
       <c r="C57" s="2">
         <v>13795.983304908001</v>
@@ -986,7 +988,7 @@
         <v>12852.035627533</v>
       </c>
       <c r="B58" s="2">
-        <v>14869.699761013</v>
+        <v>15219.6663194271</v>
       </c>
       <c r="C58" s="2">
         <v>14452.035627533</v>
@@ -997,7 +999,7 @@
         <v>13237.272311283001</v>
       </c>
       <c r="B59" s="2">
-        <v>14847.550985763</v>
+        <v>15210.5395317318</v>
       </c>
       <c r="C59" s="2">
         <v>14837.272311283001</v>
@@ -1008,7 +1010,7 @@
         <v>12849.160726908</v>
       </c>
       <c r="B60" s="2">
-        <v>14856.861032388</v>
+        <v>15591.163433407801</v>
       </c>
       <c r="C60" s="2">
         <v>14494.945662317999</v>
@@ -1016,10 +1018,10 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
-        <v>12260.759824446301</v>
+        <v>12457.171237545301</v>
       </c>
       <c r="B61" s="2">
-        <v>14115.221193193</v>
+        <v>15123.11937817</v>
       </c>
       <c r="C61" s="2">
         <v>13941.5730366351</v>
@@ -1036,7 +1038,7 @@
   <dimension ref="A1:C61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1054,10 +1056,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
-        <v>228670.43026400599</v>
+        <v>227063.24638996701</v>
       </c>
       <c r="B2" s="2">
-        <v>227063.24638996701</v>
+        <v>235726.263250488</v>
       </c>
       <c r="C2" s="2">
         <v>234898.302590437</v>
@@ -1068,7 +1070,7 @@
         <v>219623.85879851901</v>
       </c>
       <c r="B3" s="2">
-        <v>207893.226347741</v>
+        <v>228034.36034714</v>
       </c>
       <c r="C3" s="2">
         <v>223727.392445715</v>
@@ -1076,10 +1078,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
-        <v>207660.70276777301</v>
+        <v>207533.13273985099</v>
       </c>
       <c r="B4" s="2">
-        <v>202381.50778233801</v>
+        <v>228034.36034714</v>
       </c>
       <c r="C4" s="2">
         <v>222929.097117475</v>
@@ -1087,10 +1089,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
-        <v>207660.70276777301</v>
+        <v>207459.86775052699</v>
       </c>
       <c r="B5" s="2">
-        <v>199117.32602956999</v>
+        <v>228034.36034714</v>
       </c>
       <c r="C5" s="2">
         <v>222220.997126047</v>
@@ -1098,10 +1100,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
-        <v>225481.89095549699</v>
+        <v>224149.929227788</v>
       </c>
       <c r="B6" s="2">
-        <v>222158.31022896801</v>
+        <v>235685.74925944599</v>
       </c>
       <c r="C6" s="2">
         <v>231775.09624697501</v>
@@ -1112,7 +1114,7 @@
         <v>229625.89620218999</v>
       </c>
       <c r="B7" s="2">
-        <v>229177.95791944701</v>
+        <v>235795.500106561</v>
       </c>
       <c r="C7" s="2">
         <v>237867.047759901</v>
@@ -1120,10 +1122,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
-        <v>244037.20490924199</v>
+        <v>243310.978470495</v>
       </c>
       <c r="B8" s="2">
-        <v>243825.34985445801</v>
+        <v>249470.74508267999</v>
       </c>
       <c r="C8" s="2">
         <v>245850.49506356899</v>
@@ -1131,10 +1133,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
-        <v>238928.946035631</v>
+        <v>237498.33694389599</v>
       </c>
       <c r="B9" s="2">
-        <v>237295.23714671101</v>
+        <v>245793.64910268801</v>
       </c>
       <c r="C9" s="2">
         <v>244881.93314742201</v>
@@ -1142,10 +1144,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
-        <v>257825.137287644</v>
+        <v>245438.54300506701</v>
       </c>
       <c r="B10" s="2">
-        <v>238928.946035631</v>
+        <v>250644.443246679</v>
       </c>
       <c r="C10" s="2">
         <v>248057.070453875</v>
@@ -1153,10 +1155,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
-        <v>243206.60039438499</v>
+        <v>245578.031725059</v>
       </c>
       <c r="B11" s="2">
-        <v>239747.82538806001</v>
+        <v>248859.13613833199</v>
       </c>
       <c r="C11" s="2">
         <v>245825.12784319301</v>
@@ -1164,10 +1166,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
-        <v>238332.27523023501</v>
+        <v>238046.63495105601</v>
       </c>
       <c r="B12" s="2">
-        <v>237505.36332909501</v>
+        <v>246135.692398688</v>
       </c>
       <c r="C12" s="2">
         <v>241547.47348443899</v>
@@ -1175,10 +1177,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
-        <v>237752.69935627701</v>
+        <v>238046.63495105601</v>
       </c>
       <c r="B13" s="2">
-        <v>237295.23714671101</v>
+        <v>246135.692398688</v>
       </c>
       <c r="C13" s="2">
         <v>241547.47348443899</v>
@@ -1186,10 +1188,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
-        <v>232640.785972663</v>
+        <v>232639.60994707601</v>
       </c>
       <c r="B14" s="2">
-        <v>232637.363532513</v>
+        <v>241035.606733169</v>
       </c>
       <c r="C14" s="2">
         <v>235261.774668386</v>
@@ -1197,10 +1199,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
-        <v>225451.148054647</v>
+        <v>225142.11675995099</v>
       </c>
       <c r="B15" s="2">
-        <v>220331.95878994701</v>
+        <v>235622.77931925599</v>
       </c>
       <c r="C15" s="2">
         <v>234755.820676448</v>
@@ -1208,10 +1210,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
-        <v>218865.863716502</v>
+        <v>218974.682299715</v>
       </c>
       <c r="B16" s="2">
-        <v>209174.524029928</v>
+        <v>234832.09340314599</v>
       </c>
       <c r="C16" s="2">
         <v>231763.98665380801</v>
@@ -1219,10 +1221,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
-        <v>208397.63650829799</v>
+        <v>207660.70276777301</v>
       </c>
       <c r="B17" s="2">
-        <v>199601.05773934501</v>
+        <v>232669.884909341</v>
       </c>
       <c r="C17" s="2">
         <v>226424.617992955</v>
@@ -1233,7 +1235,7 @@
         <v>226564.49282432999</v>
       </c>
       <c r="B18" s="2">
-        <v>220331.95878994701</v>
+        <v>235622.77931925599</v>
       </c>
       <c r="C18" s="2">
         <v>235288.118020661</v>
@@ -1241,10 +1243,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
-        <v>235281.88816381601</v>
+        <v>235280.747350433</v>
       </c>
       <c r="B19" s="2">
-        <v>234654.27205881901</v>
+        <v>242345.21383146901</v>
       </c>
       <c r="C19" s="2">
         <v>235261.774668386</v>
@@ -1252,10 +1254,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
-        <v>232853.37340196199</v>
+        <v>240700.92729309501</v>
       </c>
       <c r="B20" s="2">
-        <v>232939.31017306299</v>
+        <v>243708.744857646</v>
       </c>
       <c r="C20" s="2">
         <v>245850.49506356899</v>
@@ -1263,10 +1265,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
-        <v>245801.01295861401</v>
+        <v>242605.44899461401</v>
       </c>
       <c r="B21" s="2">
-        <v>241527.83919423501</v>
+        <v>249148.606306317</v>
       </c>
       <c r="C21" s="2">
         <v>248881.366810949</v>
@@ -1274,10 +1276,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
-        <v>242744.937714606</v>
+        <v>240036.403650761</v>
       </c>
       <c r="B22" s="2">
-        <v>238462.72856846501</v>
+        <v>253535.00835944901</v>
       </c>
       <c r="C22" s="2">
         <v>248295.07241344801</v>
@@ -1285,10 +1287,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
-        <v>257704.09239274199</v>
+        <v>258419.11409100101</v>
       </c>
       <c r="B23" s="2">
-        <v>247267.89772056401</v>
+        <v>264187.23086079402</v>
       </c>
       <c r="C23" s="2">
         <v>266729.88189762202</v>
@@ -1299,7 +1301,7 @@
         <v>239747.82538806001</v>
       </c>
       <c r="B24" s="2">
-        <v>238332.27523023501</v>
+        <v>248859.13613833199</v>
       </c>
       <c r="C24" s="2">
         <v>242366.352836868</v>
@@ -1307,10 +1309,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
-        <v>237575.40538988999</v>
+        <v>238084.74930193499</v>
       </c>
       <c r="B25" s="2">
-        <v>237293.987138522</v>
+        <v>246597.35507846699</v>
       </c>
       <c r="C25" s="2">
         <v>242366.352836868</v>
@@ -1318,10 +1320,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
-        <v>232639.60994707601</v>
+        <v>232640.785972663</v>
       </c>
       <c r="B26" s="2">
-        <v>232637.363532513</v>
+        <v>241105.64879396401</v>
       </c>
       <c r="C26" s="2">
         <v>235471.90085077001</v>
@@ -1329,10 +1331,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
-        <v>226533.74992348001</v>
+        <v>226081.79010344</v>
       </c>
       <c r="B27" s="2">
-        <v>223632.205483297</v>
+        <v>235727.404063872</v>
       </c>
       <c r="C27" s="2">
         <v>235255.89098132099</v>
@@ -1340,10 +1342,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
-        <v>217947.91120190101</v>
+        <v>217429.18094872401</v>
       </c>
       <c r="B28" s="2">
-        <v>204585.20577598401</v>
+        <v>234678.15129913099</v>
       </c>
       <c r="C28" s="2">
         <v>231622.275417078</v>
@@ -1351,10 +1353,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
-        <v>217947.91120190101</v>
+        <v>217451.405000186</v>
       </c>
       <c r="B29" s="2">
-        <v>204585.20577598401</v>
+        <v>234678.15129913099</v>
       </c>
       <c r="C29" s="2">
         <v>231722.622800632</v>
@@ -1362,10 +1364,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
-        <v>227093.989290817</v>
+        <v>227538.54700606799</v>
       </c>
       <c r="B30" s="2">
-        <v>224262.84753209</v>
+        <v>235834.219058811</v>
       </c>
       <c r="C30" s="2">
         <v>235291.540460811</v>
@@ -1373,10 +1375,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
-        <v>235281.88816381601</v>
+        <v>235283.064189403</v>
       </c>
       <c r="B31" s="2">
-        <v>235311.49025128299</v>
+        <v>242121.19125432099</v>
       </c>
       <c r="C31" s="2">
         <v>235068.881804665</v>
@@ -1384,10 +1386,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
-        <v>237953.45906748</v>
+        <v>245801.01295861401</v>
       </c>
       <c r="B32" s="2">
-        <v>243231.967614761</v>
+        <v>249823.48619540699</v>
       </c>
       <c r="C32" s="2">
         <v>251432.454315051</v>
@@ -1395,10 +1397,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
-        <v>245801.01295861401</v>
+        <v>244403.68212817199</v>
       </c>
       <c r="B33" s="2">
-        <v>242263.40569861399</v>
+        <v>249734.90070381801</v>
       </c>
       <c r="C33" s="2">
         <v>249403.02893783199</v>
@@ -1406,10 +1408,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
-        <v>243067.111674393</v>
+        <v>245956.087384632</v>
       </c>
       <c r="B34" s="2">
-        <v>239217.52429833199</v>
+        <v>251106.946969476</v>
       </c>
       <c r="C34" s="2">
         <v>253517.82152375</v>
@@ -1417,10 +1419,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
-        <v>242605.44899461401</v>
+        <v>251576.95628627099</v>
       </c>
       <c r="B35" s="2">
-        <v>242605.44899461401</v>
+        <v>256354.313643417</v>
       </c>
       <c r="C35" s="2">
         <v>255476.53722454901</v>
@@ -1428,10 +1430,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
-        <v>242605.44899461401</v>
+        <v>248515.38971691401</v>
       </c>
       <c r="B36" s="2">
-        <v>239747.82538806001</v>
+        <v>250744.30761195201</v>
       </c>
       <c r="C36" s="2">
         <v>252920.95710256699</v>
@@ -1439,10 +1441,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
-        <v>237919.049250665</v>
+        <v>238928.946035631</v>
       </c>
       <c r="B37" s="2">
-        <v>238019.73471305799</v>
+        <v>246597.35507846699</v>
       </c>
       <c r="C37" s="2">
         <v>245685.63912320099</v>
@@ -1453,7 +1455,7 @@
         <v>232643.24721957801</v>
       </c>
       <c r="B38" s="2">
-        <v>232640.785972663</v>
+        <v>241449.29265473899</v>
       </c>
       <c r="C38" s="2">
         <v>240193.93283869801</v>
@@ -1461,10 +1463,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
-        <v>226533.74992348001</v>
+        <v>226081.79010344</v>
       </c>
       <c r="B39" s="2">
-        <v>222294.00931900801</v>
+        <v>235726.263250488</v>
       </c>
       <c r="C39" s="2">
         <v>235255.89098132099</v>
@@ -1475,7 +1477,7 @@
         <v>219623.85879851901</v>
       </c>
       <c r="B40" s="2">
-        <v>213813.19563779299</v>
+        <v>235122.70901438201</v>
       </c>
       <c r="C40" s="2">
         <v>232704.079087158</v>
@@ -1486,7 +1488,7 @@
         <v>212776.23925264299</v>
       </c>
       <c r="B41" s="2">
-        <v>217947.91120190101</v>
+        <v>235019.37117956299</v>
       </c>
       <c r="C41" s="2">
         <v>228139.636638542</v>
@@ -1494,10 +1496,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
-        <v>227093.989290817</v>
+        <v>228733.40020419599</v>
       </c>
       <c r="B42" s="2">
-        <v>226642.02947077801</v>
+        <v>235623.884920435</v>
       </c>
       <c r="C42" s="2">
         <v>235288.118020661</v>
@@ -1505,10 +1507,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
-        <v>249226.01956833899</v>
+        <v>257933.07451560299</v>
       </c>
       <c r="B43" s="2">
-        <v>244871.23925770799</v>
+        <v>250025.95822369101</v>
       </c>
       <c r="C43" s="2">
         <v>247896.52549853901</v>
@@ -1516,10 +1518,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
-        <v>240036.403650761</v>
+        <v>242366.352836868</v>
       </c>
       <c r="B44" s="2">
-        <v>236153.93863191601</v>
+        <v>252600.07394589801</v>
       </c>
       <c r="C44" s="2">
         <v>244881.93314742201</v>
@@ -1527,10 +1529,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
-        <v>258830.04823847499</v>
+        <v>260965.692740128</v>
       </c>
       <c r="B45" s="2">
-        <v>246212.40543461399</v>
+        <v>252682.74782227899</v>
       </c>
       <c r="C45" s="2">
         <v>250576.144881771</v>
@@ -1538,10 +1540,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
-        <v>258830.04823847499</v>
+        <v>261448.57568728301</v>
       </c>
       <c r="B46" s="2">
-        <v>243316.25066519299</v>
+        <v>256556.95612677201</v>
       </c>
       <c r="C46" s="2">
         <v>249901.64736760399</v>
@@ -1549,10 +1551,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
-        <v>258830.04823847499</v>
+        <v>261448.57568728301</v>
       </c>
       <c r="B47" s="2">
-        <v>244478.38916142401</v>
+        <v>253620.18644112599</v>
       </c>
       <c r="C47" s="2">
         <v>250384.94654394701</v>
@@ -1560,10 +1562,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
-        <v>258830.04823847499</v>
+        <v>260694.50869778101</v>
       </c>
       <c r="B48" s="2">
-        <v>243206.60039438499</v>
+        <v>254829.27628206299</v>
       </c>
       <c r="C48" s="2">
         <v>250122.06182467099</v>
@@ -1571,10 +1573,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
-        <v>243206.60039438499</v>
+        <v>242366.352836868</v>
       </c>
       <c r="B49" s="2">
-        <v>238798.492697401</v>
+        <v>246736.84379845901</v>
       </c>
       <c r="C49" s="2">
         <v>245223.976443422</v>
@@ -1582,10 +1584,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
-        <v>232638.469133693</v>
+        <v>232212.196611658</v>
       </c>
       <c r="B50" s="2">
-        <v>232637.363532513</v>
+        <v>235943.11866745999</v>
       </c>
       <c r="C50" s="2">
         <v>239913.76459551899</v>
@@ -1593,10 +1595,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
-        <v>218051.835127664</v>
+        <v>222220.997126047</v>
       </c>
       <c r="B51" s="2">
-        <v>211164.25332188001</v>
+        <v>232089.51113856601</v>
       </c>
       <c r="C51" s="2">
         <v>227899.809885706</v>
@@ -1604,10 +1606,10 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
-        <v>215422.54680058299</v>
+        <v>220545.049529429</v>
       </c>
       <c r="B52" s="2">
-        <v>204786.04079323</v>
+        <v>232089.51113856601</v>
       </c>
       <c r="C52" s="2">
         <v>229036.02183237</v>
@@ -1615,10 +1617,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
-        <v>210567.380642604</v>
+        <v>214065.84565823901</v>
       </c>
       <c r="B53" s="2">
-        <v>204786.04079323</v>
+        <v>232089.51113856601</v>
       </c>
       <c r="C53" s="2">
         <v>226875.010741142</v>
@@ -1626,10 +1628,10 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
-        <v>226564.49282432999</v>
+        <v>229161.63115185799</v>
       </c>
       <c r="B54" s="2">
-        <v>220814.528196614</v>
+        <v>235759.63110321201</v>
       </c>
       <c r="C54" s="2">
         <v>235288.118020661</v>
@@ -1637,10 +1639,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
-        <v>243127.19564038701</v>
+        <v>232244.42365099801</v>
       </c>
       <c r="B55" s="2">
-        <v>237701.734891384</v>
+        <v>235727.404063872</v>
       </c>
       <c r="C55" s="2">
         <v>243105.69128701699</v>
@@ -1648,10 +1650,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
-        <v>237292.77589979701</v>
+        <v>237869.36459887101</v>
       </c>
       <c r="B56" s="2">
-        <v>235249.60423388</v>
+        <v>245524.30006547499</v>
       </c>
       <c r="C56" s="2">
         <v>239913.76459551899</v>
@@ -1659,10 +1661,10 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
-        <v>237295.23714671101</v>
+        <v>243109.328559519</v>
       </c>
       <c r="B57" s="2">
-        <v>237636.50341577901</v>
+        <v>246173.24993614701</v>
       </c>
       <c r="C57" s="2">
         <v>239913.76459551899</v>
@@ -1670,10 +1672,10 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
-        <v>258830.04823847499</v>
+        <v>241337.34730205499</v>
       </c>
       <c r="B58" s="2">
-        <v>238718.819853247</v>
+        <v>253150.641465603</v>
       </c>
       <c r="C58" s="2">
         <v>244866.75977077201</v>
@@ -1681,10 +1683,10 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
-        <v>258830.04823847499</v>
+        <v>261448.57568728301</v>
       </c>
       <c r="B59" s="2">
-        <v>237719.62607972001</v>
+        <v>253192.85983432501</v>
       </c>
       <c r="C59" s="2">
         <v>261448.57568728301</v>
@@ -1692,10 +1694,10 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
-        <v>237290.45906082599</v>
+        <v>239913.76459551899</v>
       </c>
       <c r="B60" s="2">
-        <v>237289.35345964701</v>
+        <v>242459.18943970499</v>
       </c>
       <c r="C60" s="2">
         <v>239912.51458732999</v>
@@ -1703,10 +1705,1383 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
-        <v>237289.35345964701</v>
+        <v>235259.31342147099</v>
       </c>
       <c r="B61" s="2">
-        <v>237289.35345964701</v>
+        <v>242459.18943970499</v>
+      </c>
+      <c r="C61" s="2">
+        <v>239913.76459551899</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BACEE63F-619B-47CF-9BBE-237BCBC05456}">
+  <dimension ref="A1:C61"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>11922.930466708</v>
+      </c>
+      <c r="B2" s="2">
+        <v>13702.502513911601</v>
+      </c>
+      <c r="C2" s="2">
+        <v>14322.930466708</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>10554.0226295254</v>
+      </c>
+      <c r="B3" s="2">
+        <v>12623.900898822199</v>
+      </c>
+      <c r="C3" s="2">
+        <v>12954.0226295254</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>9831.2695689291904</v>
+      </c>
+      <c r="B4" s="2">
+        <v>12232.3139715708</v>
+      </c>
+      <c r="C4" s="2">
+        <v>12231.2695689292</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>9770.8936123330095</v>
+      </c>
+      <c r="B5" s="2">
+        <v>12171.9316661905</v>
+      </c>
+      <c r="C5" s="2">
+        <v>12170.893612333</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>9967.9980417079896</v>
+      </c>
+      <c r="B6" s="2">
+        <v>12064.906077739999</v>
+      </c>
+      <c r="C6" s="2">
+        <v>12367.998041708001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>10311.509505657999</v>
+      </c>
+      <c r="B7" s="2">
+        <v>12568.5500515521</v>
+      </c>
+      <c r="C7" s="2">
+        <v>12092.3882820618</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>11270.265303658</v>
+      </c>
+      <c r="B8" s="2">
+        <v>13322.1919834368</v>
+      </c>
+      <c r="C8" s="2">
+        <v>12870.265303658</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>12325.928813158</v>
+      </c>
+      <c r="B9" s="2">
+        <v>14296.149393911999</v>
+      </c>
+      <c r="C9" s="2">
+        <v>13925.928813158</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>13269.471198282999</v>
+      </c>
+      <c r="B10" s="2">
+        <v>14870.4683212616</v>
+      </c>
+      <c r="C10" s="2">
+        <v>14804.6343948544</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>13851.351084783</v>
+      </c>
+      <c r="B11" s="2">
+        <v>15705.3047966102</v>
+      </c>
+      <c r="C11" s="2">
+        <v>15451.351084783</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>13601.61141772</v>
+      </c>
+      <c r="B12" s="2">
+        <v>15619.4967235229</v>
+      </c>
+      <c r="C12" s="2">
+        <v>15178.810505533</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>13069.762520443801</v>
+      </c>
+      <c r="B13" s="2">
+        <v>15001.0948926206</v>
+      </c>
+      <c r="C13" s="2">
+        <v>14633.161056143599</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>11870.544554157999</v>
+      </c>
+      <c r="B14" s="2">
+        <v>14259.989248453599</v>
+      </c>
+      <c r="C14" s="2">
+        <v>14270.544554157999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>11101.978688650401</v>
+      </c>
+      <c r="B15" s="2">
+        <v>13065.468318109701</v>
+      </c>
+      <c r="C15" s="2">
+        <v>13501.978688650401</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>10225.705934679199</v>
+      </c>
+      <c r="B16" s="2">
+        <v>12626.665895644201</v>
+      </c>
+      <c r="C16" s="2">
+        <v>12625.705934679199</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>9960.6370535830101</v>
+      </c>
+      <c r="B17" s="2">
+        <v>12361.565995032601</v>
+      </c>
+      <c r="C17" s="2">
+        <v>12360.637053582999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>10187.6523318936</v>
+      </c>
+      <c r="B18" s="2">
+        <v>12130.793113060001</v>
+      </c>
+      <c r="C18" s="2">
+        <v>12587.640449458</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>10449.048428847</v>
+      </c>
+      <c r="B19" s="2">
+        <v>12380.891039423899</v>
+      </c>
+      <c r="C19" s="2">
+        <v>12714.073355783001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>11603.753776158001</v>
+      </c>
+      <c r="B20" s="2">
+        <v>13516.123711214201</v>
+      </c>
+      <c r="C20" s="2">
+        <v>13300.382049571799</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>12564.545565033</v>
+      </c>
+      <c r="B21" s="2">
+        <v>14544.855975955999</v>
+      </c>
+      <c r="C21" s="2">
+        <v>14164.545565033</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>13451.164917783</v>
+      </c>
+      <c r="B22" s="2">
+        <v>15179.015797988301</v>
+      </c>
+      <c r="C22" s="2">
+        <v>15051.164917783</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>14027.295003032999</v>
+      </c>
+      <c r="B23" s="2">
+        <v>15628.2124814464</v>
+      </c>
+      <c r="C23" s="2">
+        <v>15627.295003032999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>13775.453708282999</v>
+      </c>
+      <c r="B24" s="2">
+        <v>15891.130007501701</v>
+      </c>
+      <c r="C24" s="2">
+        <v>15375.453708282999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>13133.782578018599</v>
+      </c>
+      <c r="B25" s="2">
+        <v>15192.5445770478</v>
+      </c>
+      <c r="C25" s="2">
+        <v>14880.884659319099</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>11849.845269658001</v>
+      </c>
+      <c r="B26" s="2">
+        <v>14200.2132486112</v>
+      </c>
+      <c r="C26" s="2">
+        <v>14249.845269658001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>11083.0043445254</v>
+      </c>
+      <c r="B27" s="2">
+        <v>13243.1518039737</v>
+      </c>
+      <c r="C27" s="2">
+        <v>13483.0043445254</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>10165.2363686804</v>
+      </c>
+      <c r="B28" s="2">
+        <v>12463.375895646201</v>
+      </c>
+      <c r="C28" s="2">
+        <v>12552.645843844501</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>10063.0801687068</v>
+      </c>
+      <c r="B29" s="2">
+        <v>12392.9903100131</v>
+      </c>
+      <c r="C29" s="2">
+        <v>12475.670693542699</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>10249.175205268601</v>
+      </c>
+      <c r="B30" s="2">
+        <v>12213.679424195399</v>
+      </c>
+      <c r="C30" s="2">
+        <v>12649.163322832999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>10557.753055561599</v>
+      </c>
+      <c r="B31" s="2">
+        <v>12278.7136237209</v>
+      </c>
+      <c r="C31" s="2">
+        <v>12680.724508533</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>11591.679193533</v>
+      </c>
+      <c r="B32" s="2">
+        <v>13672.128978738499</v>
+      </c>
+      <c r="C32" s="2">
+        <v>13191.679193533</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>12503.022691658</v>
+      </c>
+      <c r="B33" s="2">
+        <v>14560.9823973127</v>
+      </c>
+      <c r="C33" s="2">
+        <v>14103.022691658</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>13376.417501533</v>
+      </c>
+      <c r="B34" s="2">
+        <v>14977.2047777111</v>
+      </c>
+      <c r="C34" s="2">
+        <v>14976.417501533</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <v>14037.069665158</v>
+      </c>
+      <c r="B35" s="2">
+        <v>16196.1194959851</v>
+      </c>
+      <c r="C35" s="2">
+        <v>15637.069665158</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <v>13788.103271033</v>
+      </c>
+      <c r="B36" s="2">
+        <v>15389.001312709799</v>
+      </c>
+      <c r="C36" s="2">
+        <v>15388.103271033</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <v>13132.0555794173</v>
+      </c>
+      <c r="B37" s="2">
+        <v>15111.453329178399</v>
+      </c>
+      <c r="C37" s="2">
+        <v>15010.9864320509</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
+        <v>12975.144095457999</v>
+      </c>
+      <c r="B38" s="2">
+        <v>14905.240442254901</v>
+      </c>
+      <c r="C38" s="2">
+        <v>15375.144095457999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <v>11180.7509657754</v>
+      </c>
+      <c r="B39" s="2">
+        <v>13101.5236922681</v>
+      </c>
+      <c r="C39" s="2">
+        <v>13580.7509657754</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
+        <v>10273.429285054201</v>
+      </c>
+      <c r="B40" s="2">
+        <v>12674.496715822799</v>
+      </c>
+      <c r="C40" s="2">
+        <v>12673.429285054201</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
+        <v>10072.758177958</v>
+      </c>
+      <c r="B41" s="2">
+        <v>12473.874011088101</v>
+      </c>
+      <c r="C41" s="2">
+        <v>12472.758177958</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
+        <v>10175.002769143601</v>
+      </c>
+      <c r="B42" s="2">
+        <v>12480.9477579063</v>
+      </c>
+      <c r="C42" s="2">
+        <v>12574.990886707999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
+        <v>10296.248971908</v>
+      </c>
+      <c r="B43" s="2">
+        <v>12273.9387498939</v>
+      </c>
+      <c r="C43" s="2">
+        <v>12939.7415198279</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
+        <v>11989.203027007999</v>
+      </c>
+      <c r="B44" s="2">
+        <v>13756.8008137405</v>
+      </c>
+      <c r="C44" s="2">
+        <v>13801.739094902799</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
+        <v>12616.868756407999</v>
+      </c>
+      <c r="B45" s="2">
+        <v>14634.410146829099</v>
+      </c>
+      <c r="C45" s="2">
+        <v>14216.868756407999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
+        <v>13530.512175033</v>
+      </c>
+      <c r="B46" s="2">
+        <v>15131.369361359701</v>
+      </c>
+      <c r="C46" s="2">
+        <v>15130.512175033</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
+        <v>14173.339954782999</v>
+      </c>
+      <c r="B47" s="2">
+        <v>16011.6305963758</v>
+      </c>
+      <c r="C47" s="2">
+        <v>15773.339954782999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
+        <v>13858.250846282999</v>
+      </c>
+      <c r="B48" s="2">
+        <v>15815.8832027809</v>
+      </c>
+      <c r="C48" s="2">
+        <v>15458.250846282999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
+        <v>13599.525849615</v>
+      </c>
+      <c r="B49" s="2">
+        <v>15444.5768061092</v>
+      </c>
+      <c r="C49" s="2">
+        <v>15180.663577776901</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="2">
+        <v>12245.167666032999</v>
+      </c>
+      <c r="B50" s="2">
+        <v>14547.9177537551</v>
+      </c>
+      <c r="C50" s="2">
+        <v>14325.167666032999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="2">
+        <v>11161.776621650401</v>
+      </c>
+      <c r="B51" s="2">
+        <v>13611.786522357799</v>
+      </c>
+      <c r="C51" s="2">
+        <v>13681.369444179199</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="2">
+        <v>10179.132544554201</v>
+      </c>
+      <c r="B52" s="2">
+        <v>12301.118634432099</v>
+      </c>
+      <c r="C52" s="2">
+        <v>12459.5397220254</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="2">
+        <v>10059.533635083</v>
+      </c>
+      <c r="B53" s="2">
+        <v>12460.617289595501</v>
+      </c>
+      <c r="C53" s="2">
+        <v>12459.533635083</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="2">
+        <v>10173.059604563899</v>
+      </c>
+      <c r="B54" s="2">
+        <v>12202.295827956101</v>
+      </c>
+      <c r="C54" s="2">
+        <v>12221.9709827487</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="2">
+        <v>10195.052469908</v>
+      </c>
+      <c r="B55" s="2">
+        <v>12122.392660835299</v>
+      </c>
+      <c r="C55" s="2">
+        <v>12595.052469908</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="2">
+        <v>11366.861964657999</v>
+      </c>
+      <c r="B56" s="2">
+        <v>13436.9365304902</v>
+      </c>
+      <c r="C56" s="2">
+        <v>13288.191686300899</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="2">
+        <v>12195.983304908001</v>
+      </c>
+      <c r="B57" s="2">
+        <v>14289.115854891499</v>
+      </c>
+      <c r="C57" s="2">
+        <v>13795.983304908001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="2">
+        <v>12852.035627533</v>
+      </c>
+      <c r="B58" s="2">
+        <v>14458.4205288505</v>
+      </c>
+      <c r="C58" s="2">
+        <v>14452.035627533</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="2">
+        <v>13237.272311283001</v>
+      </c>
+      <c r="B59" s="2">
+        <v>14837.943260730701</v>
+      </c>
+      <c r="C59" s="2">
+        <v>14837.272311283001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="2">
+        <v>12849.160726908</v>
+      </c>
+      <c r="B60" s="2">
+        <v>14871.151416103199</v>
+      </c>
+      <c r="C60" s="2">
+        <v>14455.885051535601</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="2">
+        <v>12457.171237545301</v>
+      </c>
+      <c r="B61" s="2">
+        <v>14278.8041742029</v>
+      </c>
+      <c r="C61" s="2">
+        <v>14108.9637732557</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A85A277A-57FD-4EC4-825C-2D014CB0CAB5}">
+  <dimension ref="A1:C61"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>227063.24638996701</v>
+      </c>
+      <c r="B2" s="2">
+        <v>234398.23228556299</v>
+      </c>
+      <c r="C2" s="2">
+        <v>234898.302590437</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>219623.85879851901</v>
+      </c>
+      <c r="B3" s="2">
+        <v>223276.99969752901</v>
+      </c>
+      <c r="C3" s="2">
+        <v>223276.99969752901</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>207533.13273985099</v>
+      </c>
+      <c r="B4" s="2">
+        <v>222929.097117475</v>
+      </c>
+      <c r="C4" s="2">
+        <v>222929.097117475</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>207459.86775052699</v>
+      </c>
+      <c r="B5" s="2">
+        <v>222220.997126047</v>
+      </c>
+      <c r="C5" s="2">
+        <v>222220.997126047</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>224149.929227788</v>
+      </c>
+      <c r="B6" s="2">
+        <v>231330.53853172401</v>
+      </c>
+      <c r="C6" s="2">
+        <v>231775.09624697501</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>229625.89620218999</v>
+      </c>
+      <c r="B7" s="2">
+        <v>237865.94215872101</v>
+      </c>
+      <c r="C7" s="2">
+        <v>237865.94215872101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>243310.978470495</v>
+      </c>
+      <c r="B8" s="2">
+        <v>244612.58411020899</v>
+      </c>
+      <c r="C8" s="2">
+        <v>245850.49506356899</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>237498.33694389599</v>
+      </c>
+      <c r="B9" s="2">
+        <v>241836.05174714001</v>
+      </c>
+      <c r="C9" s="2">
+        <v>241547.47348443899</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>245438.54300506701</v>
+      </c>
+      <c r="B10" s="2">
+        <v>245223.976443422</v>
+      </c>
+      <c r="C10" s="2">
+        <v>248624.707356756</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>245578.031725059</v>
+      </c>
+      <c r="B11" s="2">
+        <v>244881.93314742201</v>
+      </c>
+      <c r="C11" s="2">
+        <v>247947.42018306599</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>238046.63495105601</v>
+      </c>
+      <c r="B12" s="2">
+        <v>242654.93109956899</v>
+      </c>
+      <c r="C12" s="2">
+        <v>242366.352836868</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>238046.63495105601</v>
+      </c>
+      <c r="B13" s="2">
+        <v>242366.352836868</v>
+      </c>
+      <c r="C13" s="2">
+        <v>242366.352836868</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>232639.60994707601</v>
+      </c>
+      <c r="B14" s="2">
+        <v>235261.774668386</v>
+      </c>
+      <c r="C14" s="2">
+        <v>235261.774668386</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>225142.11675995099</v>
+      </c>
+      <c r="B15" s="2">
+        <v>234755.820676448</v>
+      </c>
+      <c r="C15" s="2">
+        <v>234755.820676448</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>218974.682299715</v>
+      </c>
+      <c r="B16" s="2">
+        <v>232501.29363645101</v>
+      </c>
+      <c r="C16" s="2">
+        <v>232501.29363645101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>207660.70276777301</v>
+      </c>
+      <c r="B17" s="2">
+        <v>226424.617992955</v>
+      </c>
+      <c r="C17" s="2">
+        <v>226875.010741142</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>226564.49282432999</v>
+      </c>
+      <c r="B18" s="2">
+        <v>235288.118020661</v>
+      </c>
+      <c r="C18" s="2">
+        <v>235291.540460811</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>235280.747350433</v>
+      </c>
+      <c r="B19" s="2">
+        <v>241040.680862434</v>
+      </c>
+      <c r="C19" s="2">
+        <v>243206.598794608</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>240700.92729309501</v>
+      </c>
+      <c r="B20" s="2">
+        <v>245680.84034408501</v>
+      </c>
+      <c r="C20" s="2">
+        <v>244881.93314742201</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>242605.44899461401</v>
+      </c>
+      <c r="B21" s="2">
+        <v>248911.77024014099</v>
+      </c>
+      <c r="C21" s="2">
+        <v>248881.366810949</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>240036.403650761</v>
+      </c>
+      <c r="B22" s="2">
+        <v>250576.144881771</v>
+      </c>
+      <c r="C22" s="2">
+        <v>256450.900059101</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>258419.11409100101</v>
+      </c>
+      <c r="B23" s="2">
+        <v>266729.88189762202</v>
+      </c>
+      <c r="C23" s="2">
+        <v>266729.88189762202</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>239747.82538806001</v>
+      </c>
+      <c r="B24" s="2">
+        <v>245223.976443422</v>
+      </c>
+      <c r="C24" s="2">
+        <v>242654.93109956899</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>238084.74930193499</v>
+      </c>
+      <c r="B25" s="2">
+        <v>243472.93297148499</v>
+      </c>
+      <c r="C25" s="2">
+        <v>242366.352836868</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>232640.785972663</v>
+      </c>
+      <c r="B26" s="2">
+        <v>235261.774668386</v>
+      </c>
+      <c r="C26" s="2">
+        <v>235471.90085077001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>226081.79010344</v>
+      </c>
+      <c r="B27" s="2">
+        <v>235234.501860041</v>
+      </c>
+      <c r="C27" s="2">
+        <v>235234.501860041</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>217429.18094872401</v>
+      </c>
+      <c r="B28" s="2">
+        <v>231091.98075183801</v>
+      </c>
+      <c r="C28" s="2">
+        <v>231187.10887364901</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>217451.405000186</v>
+      </c>
+      <c r="B29" s="2">
+        <v>231091.98075183801</v>
+      </c>
+      <c r="C29" s="2">
+        <v>231722.622800632</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>227538.54700606799</v>
+      </c>
+      <c r="B30" s="2">
+        <v>235291.540460811</v>
+      </c>
+      <c r="C30" s="2">
+        <v>235291.540460811</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>235283.064189403</v>
+      </c>
+      <c r="B31" s="2">
+        <v>239659.12613645999</v>
+      </c>
+      <c r="C31" s="2">
+        <v>242335.50801786501</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>245801.01295861401</v>
+      </c>
+      <c r="B32" s="2">
+        <v>249639.23374575199</v>
+      </c>
+      <c r="C32" s="2">
+        <v>248236.890351051</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>244403.68212817199</v>
+      </c>
+      <c r="B33" s="2">
+        <v>248911.77024014099</v>
+      </c>
+      <c r="C33" s="2">
+        <v>248236.890351051</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>245956.087384632</v>
+      </c>
+      <c r="B34" s="2">
+        <v>250576.144881771</v>
+      </c>
+      <c r="C34" s="2">
+        <v>249732.727291413</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <v>251576.95628627099</v>
+      </c>
+      <c r="B35" s="2">
+        <v>255403.36803500901</v>
+      </c>
+      <c r="C35" s="2">
+        <v>252378.592306607</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <v>248515.38971691401</v>
+      </c>
+      <c r="B36" s="2">
+        <v>250334.54844137799</v>
+      </c>
+      <c r="C36" s="2">
+        <v>250699.35129135</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <v>238928.946035631</v>
+      </c>
+      <c r="B37" s="2">
+        <v>249411.33508341201</v>
+      </c>
+      <c r="C37" s="2">
+        <v>245223.976443422</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
+        <v>232643.24721957801</v>
+      </c>
+      <c r="B38" s="2">
+        <v>240371.226805085</v>
+      </c>
+      <c r="C38" s="2">
+        <v>240371.226805085</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <v>226081.79010344</v>
+      </c>
+      <c r="B39" s="2">
+        <v>234755.820676448</v>
+      </c>
+      <c r="C39" s="2">
+        <v>235234.501860041</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
+        <v>219623.85879851901</v>
+      </c>
+      <c r="B40" s="2">
+        <v>232704.079087158</v>
+      </c>
+      <c r="C40" s="2">
+        <v>234311.262961197</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
+        <v>212776.23925264299</v>
+      </c>
+      <c r="B41" s="2">
+        <v>227984.43462974101</v>
+      </c>
+      <c r="C41" s="2">
+        <v>228268.05058927799</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
+        <v>228733.40020419599</v>
+      </c>
+      <c r="B42" s="2">
+        <v>234788.04771578801</v>
+      </c>
+      <c r="C42" s="2">
+        <v>235255.89098132099</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
+        <v>257933.07451560299</v>
+      </c>
+      <c r="B43" s="2">
+        <v>248894.94774721001</v>
+      </c>
+      <c r="C43" s="2">
+        <v>250405.788173537</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
+        <v>242366.352836868</v>
+      </c>
+      <c r="B44" s="2">
+        <v>245825.12784319301</v>
+      </c>
+      <c r="C44" s="2">
+        <v>249190.54232112499</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
+        <v>260965.692740128</v>
+      </c>
+      <c r="B45" s="2">
+        <v>255960.02074392801</v>
+      </c>
+      <c r="C45" s="2">
+        <v>258091.59625960499</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
+        <v>261448.57568728301</v>
+      </c>
+      <c r="B46" s="2">
+        <v>258304.83296472501</v>
+      </c>
+      <c r="C46" s="2">
+        <v>261448.57568728301</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
+        <v>261448.57568728301</v>
+      </c>
+      <c r="B47" s="2">
+        <v>257646.78941400899</v>
+      </c>
+      <c r="C47" s="2">
+        <v>261448.57568728301</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
+        <v>260694.50869778101</v>
+      </c>
+      <c r="B48" s="2">
+        <v>257646.78941400899</v>
+      </c>
+      <c r="C48" s="2">
+        <v>261448.57568728301</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
+        <v>242366.352836868</v>
+      </c>
+      <c r="B49" s="2">
+        <v>245825.12784319301</v>
+      </c>
+      <c r="C49" s="2">
+        <v>250384.94654394701</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="2">
+        <v>232212.196611658</v>
+      </c>
+      <c r="B50" s="2">
+        <v>239912.51458732999</v>
+      </c>
+      <c r="C50" s="2">
+        <v>235259.31342147099</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="2">
+        <v>222220.997126047</v>
+      </c>
+      <c r="B51" s="2">
+        <v>227003.424691878</v>
+      </c>
+      <c r="C51" s="2">
+        <v>231091.98075183801</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="2">
+        <v>220545.049529429</v>
+      </c>
+      <c r="B52" s="2">
+        <v>228139.636638542</v>
+      </c>
+      <c r="C52" s="2">
+        <v>231091.98075183801</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="2">
+        <v>214065.84565823901</v>
+      </c>
+      <c r="B53" s="2">
+        <v>226875.010741142</v>
+      </c>
+      <c r="C53" s="2">
+        <v>227366.97795700401</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="2">
+        <v>229161.63115185799</v>
+      </c>
+      <c r="B54" s="2">
+        <v>235266.72889938101</v>
+      </c>
+      <c r="C54" s="2">
+        <v>235288.118020661</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="2">
+        <v>232244.42365099801</v>
+      </c>
+      <c r="B55" s="2">
+        <v>243104.55047363401</v>
+      </c>
+      <c r="C55" s="2">
+        <v>235256.99658250099</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="2">
+        <v>237869.36459887101</v>
+      </c>
+      <c r="B56" s="2">
+        <v>239913.76459551899</v>
+      </c>
+      <c r="C56" s="2">
+        <v>243109.328559519</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="2">
+        <v>243109.328559519</v>
+      </c>
+      <c r="B57" s="2">
+        <v>239940.66483351699</v>
+      </c>
+      <c r="C57" s="2">
+        <v>241547.47348443899</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="2">
+        <v>241337.34730205499</v>
+      </c>
+      <c r="B58" s="2">
+        <v>241547.47348443899</v>
+      </c>
+      <c r="C58" s="2">
+        <v>248057.070453875</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="2">
+        <v>261448.57568728301</v>
+      </c>
+      <c r="B59" s="2">
+        <v>258034.30865823399</v>
+      </c>
+      <c r="C59" s="2">
+        <v>245934.778114001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="2">
+        <v>239913.76459551899</v>
+      </c>
+      <c r="B60" s="2">
+        <v>239913.76459551899</v>
+      </c>
+      <c r="C60" s="2">
+        <v>240950.802679043</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="2">
+        <v>235259.31342147099</v>
+      </c>
+      <c r="B61" s="2">
+        <v>239913.76459551899</v>
       </c>
       <c r="C61" s="2">
         <v>239913.76459551899</v>
